--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Module</t>
   </si>
@@ -52,14 +52,24 @@
 Try to integrate XMPP message into the SW. 
 Maybe need support from Google App Engine</t>
   </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>[9/28/2014]
+Get the account from GitHub and try to create a respository during the Windows client.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="d\.m\.yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="d\.m\.yy;@"/>
+    <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -132,12 +142,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -449,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,45 +503,57 @@
     <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Wooooo" sheetId="1" r:id="rId1"/>
+    <sheet name="Black Knowledge" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Module</t>
   </si>
@@ -59,8 +59,45 @@
     <t>Sign Up</t>
   </si>
   <si>
+    <t>In development</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Change the min or max requried sdk version</t>
+  </si>
+  <si>
+    <t>These two properties could be changed in build.gradle</t>
+  </si>
+  <si>
+    <t>android.os.AsyncTask</t>
+  </si>
+  <si>
+    <t>doInBackground must be implemented with an ARRAY as input parameter</t>
+  </si>
+  <si>
     <t>[9/28/2014]
-Get the account from GitHub and try to create a respository during the Windows client.</t>
+Get the account from GitHub and try to create a respository during the Windows client.
+Connection created sucessfully between the local workspace and GitHub respository. The GitHb can only connect to the GitHub folder of the local computer. So copy the project to GitHub folder.</t>
+  </si>
+  <si>
+    <t>[9/28/2014]
+Change the min required version of sdk to 11 in order to use the above property.
+Can't use style/Theme.Holo.NoActionBar as the theme of LoginActivity. The reason is unknown.</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>[9/28/2014]
+Create UserData.</t>
   </si>
 </sst>
 </file>
@@ -142,7 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -159,6 +196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -173,6 +214,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Topic"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,20 +515,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,74 +540,94 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,13 +637,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9">
+        <v>41910</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9">
+        <v>41910</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Module</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Plan</t>
-  </si>
-  <si>
-    <t>View I</t>
   </si>
   <si>
     <t>Communication</t>
@@ -98,6 +95,54 @@
   <si>
     <t>[9/28/2014]
 Create UserData.</t>
+  </si>
+  <si>
+    <t>Login View</t>
+  </si>
+  <si>
+    <t>Sub Module</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Controler</t>
+  </si>
+  <si>
+    <t>Begin View</t>
+  </si>
+  <si>
+    <t>[9/30/2014]
+Create an adpter view to combinate the Slave and Master modes.
+-Press "I'm coming" to go to the slave mode;
+-Press "I'm waiting" to go to the master mode.</t>
+  </si>
+  <si>
+    <t>Should be change its name to Master View</t>
+  </si>
+  <si>
+    <t>Used in Master roller, can check the position of others</t>
+  </si>
+  <si>
+    <t>Let user to select ist roller: slave or master</t>
+  </si>
+  <si>
+    <t>Master View</t>
+  </si>
+  <si>
+    <t>Slave View</t>
+  </si>
+  <si>
+    <t>Used in Slave roller</t>
+  </si>
+  <si>
+    <t>System Archtecture</t>
+  </si>
+  <si>
+    <t>Shall we seperate the two roller between Slave and Master?</t>
   </si>
 </sst>
 </file>
@@ -132,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +194,13 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,13 +223,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -200,8 +288,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,121 +615,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -653,35 +844,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9">
         <v>41910</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9">
         <v>41910</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wooooo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Module</t>
   </si>
@@ -143,6 +143,17 @@
   </si>
   <si>
     <t>Shall we seperate the two roller between Slave and Master?</t>
+  </si>
+  <si>
+    <t>[10/7/2014]
+Add icon into the buttons.</t>
+  </si>
+  <si>
+    <t>Add icon into button</t>
+  </si>
+  <si>
+    <t>Use android:drawableLeft to add image into the component.
+Use android:paddingLeft/Right to change the position of the image.</t>
   </si>
 </sst>
 </file>
@@ -288,17 +299,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
@@ -317,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Topic"/>
     <tableColumn id="2" name="Date"/>
@@ -617,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +659,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -661,7 +672,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
@@ -674,7 +685,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -684,12 +695,12 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -723,11 +734,11 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -815,6 +826,9 @@
       </c>
       <c r="C25" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -828,11 +842,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,6 +887,17 @@
       </c>
       <c r="C3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41919</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Wooooo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Module</t>
   </si>
@@ -121,9 +121,6 @@
 -Press "I'm waiting" to go to the master mode.</t>
   </si>
   <si>
-    <t>Should be change its name to Master View</t>
-  </si>
-  <si>
     <t>Used in Master roller, can check the position of others</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>Slave View</t>
-  </si>
-  <si>
-    <t>Used in Slave roller</t>
   </si>
   <si>
     <t>System Archtecture</t>
@@ -154,6 +148,35 @@
   <si>
     <t>Use android:drawableLeft to add image into the component.
 Use android:paddingLeft/Right to change the position of the image.</t>
+  </si>
+  <si>
+    <t>Add quotation marks into string</t>
+  </si>
+  <si>
+    <t>Very easy, just using \ + quotation marks, like \' or \"</t>
+  </si>
+  <si>
+    <t>Used in Slave roller, which provide the current location and has no requirement to observe others.</t>
+  </si>
+  <si>
+    <t>Should be change its name to Master View
+[10/9/2014]
+Already done</t>
+  </si>
+  <si>
+    <t>[10/9/2014]
+Add new view with the background Uncel Sam</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>[10/9/2014]
+Add new Button Selector with Shadow.
+Need to change the transition color to blue</t>
   </si>
 </sst>
 </file>
@@ -278,10 +301,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -299,7 +321,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -309,6 +330,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -328,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Topic"/>
     <tableColumn id="2" name="Date"/>
@@ -626,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,193 +675,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -842,11 +898,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +927,7 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>41910</v>
       </c>
       <c r="C2" t="s">
@@ -882,7 +938,7 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>41910</v>
       </c>
       <c r="C3" t="s">
@@ -891,12 +947,23 @@
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8">
+        <v>41919</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9">
-        <v>41919</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B5" s="8">
+        <v>41921</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wooooo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Module</t>
   </si>
@@ -177,6 +177,51 @@
     <t>[10/9/2014]
 Add new Button Selector with Shadow.
 Need to change the transition color to blue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.75"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manifest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> merger failed : uses-sdk:minSdkVersion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.75"/>
+        <color rgb="FF800000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cannot be smaller than version L de</t>
+    </r>
+  </si>
+  <si>
+    <t>Should change the version of support-V4 and appcompact-v7 with the fixed version number</t>
   </si>
 </sst>
 </file>
@@ -187,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d\.m\.yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +251,27 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.75"/>
+      <color rgb="FF2B91AF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.75"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,7 +367,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,6 +388,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -331,24 +409,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
-    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Akzent3" xfId="3" builtinId="37"/>
+    <cellStyle name="Akzent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Zelle überprüfen" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Topic"/>
     <tableColumn id="2" name="Date"/>
@@ -373,9 +440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -413,7 +480,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -485,7 +552,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,11 +728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -675,95 +742,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,8 +904,8 @@
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -898,14 +965,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -967,10 +1034,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8">
+        <v>41921</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -981,7 +1060,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Wooooo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Module</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Communication</t>
-  </si>
-  <si>
-    <t>Slave</t>
   </si>
   <si>
     <t>[9/27/2014]
@@ -222,6 +219,61 @@
   </si>
   <si>
     <t>Should change the version of support-V4 and appcompact-v7 with the fixed version number</t>
+  </si>
+  <si>
+    <t>Add external libary into project</t>
+  </si>
+  <si>
+    <t>1. Click File--&gt;Project Stucture, select the project and the tab called Dependencies
+2. Add the Maven Reference, Andriod Studio will download the libaries automatically.</t>
+  </si>
+  <si>
+    <t>[15.10.2014]
+Add asmack libaries into the project during the MAVEN reference.</t>
+  </si>
+  <si>
+    <t>ConnectionService</t>
+  </si>
+  <si>
+    <t>Interface of all possible connection service</t>
+  </si>
+  <si>
+    <t>A simple interface has been implemented including connect function</t>
+  </si>
+  <si>
+    <t>ConnectionServiceFactory</t>
+  </si>
+  <si>
+    <t>Factory Methode to create an Instance of each Connection Services</t>
+  </si>
+  <si>
+    <t>Service.connection</t>
+  </si>
+  <si>
+    <t>Service.actuator</t>
+  </si>
+  <si>
+    <t>XMPPInstantMessageService</t>
+  </si>
+  <si>
+    <t>Implementation of the ConnectionSerivce, which will build a XMPP connection based on Gtalk</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Communicaation</t>
+  </si>
+  <si>
+    <t>XMPP</t>
+  </si>
+  <si>
+    <t>Software Architecture</t>
+  </si>
+  <si>
+    <t>[15.10.2014]
+Using Factory to create a connection service.
+Define a interface as the template of all connection services, which will be implemented in future</t>
   </si>
 </sst>
 </file>
@@ -367,7 +419,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -400,6 +452,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -409,7 +462,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Akzent3" xfId="3" builtinId="37"/>
@@ -428,8 +483,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Topic"/>
     <tableColumn id="2" name="Date"/>
@@ -726,16 +781,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
@@ -746,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
@@ -759,60 +814,60 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>25</v>
+      <c r="A2" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -823,140 +878,199 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="8" spans="1:5" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -965,11 +1079,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,68 +1095,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8">
         <v>41910</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8">
         <v>41910</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8">
         <v>41919</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="8">
         <v>41921</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>47</v>
+      <c r="A6" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="B6" s="8">
         <v>41921</v>
       </c>
       <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>48</v>
+      </c>
+      <c r="B7" s="8">
+        <v>41927</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wooooo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Module</t>
   </si>
@@ -274,6 +274,27 @@
     <t>[15.10.2014]
 Using Factory to create a connection service.
 Define a interface as the template of all connection services, which will be implemented in future</t>
+  </si>
+  <si>
+    <t>Service.android</t>
+  </si>
+  <si>
+    <t>MessageService</t>
+  </si>
+  <si>
+    <t>To send the message to the server automatically</t>
+  </si>
+  <si>
+    <t>[10/19/2014]
+Create the MessageService to send the GPS data automatically in backgroud
+Using Handler + mutil thread to exchange the message between Service and Activity</t>
+  </si>
+  <si>
+    <t>Communication between Service and Activity</t>
+  </si>
+  <si>
+    <t>Handler can be used to exchange message between service and activity
+How to transfer the object of Handler from activity to service is a difficult points. A possible solution is to transfer that during the binder. Otherwise, service can send its message during broadcast service but not with handler.sendMessage.</t>
   </si>
 </sst>
 </file>
@@ -453,6 +474,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -462,15 +486,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Akzent3" xfId="3" builtinId="37"/>
-    <cellStyle name="Akzent6" xfId="2" builtinId="49"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Zelle überprüfen" xfId="1" builtinId="23"/>
+    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,8 +504,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Topic"/>
     <tableColumn id="2" name="Date"/>
@@ -495,9 +516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -535,7 +556,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -607,7 +628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -781,13 +802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
@@ -814,7 +835,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -827,7 +848,7 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
@@ -840,7 +861,7 @@
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
@@ -855,7 +876,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
@@ -888,7 +909,7 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -903,7 +924,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
@@ -914,7 +935,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -926,144 +947,171 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
+    <row r="11" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1079,14 +1127,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -1168,6 +1216,17 @@
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8">
+        <v>41931</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Work Protocol.xlsx
+++ b/Document/Work Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Wooooo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Module</t>
   </si>
@@ -295,6 +295,14 @@
   <si>
     <t>Handler can be used to exchange message between service and activity
 How to transfer the object of Handler from activity to service is a difficult points. A possible solution is to transfer that during the binder. Otherwise, service can send its message during broadcast service but not with handler.sendMessage.</t>
+  </si>
+  <si>
+    <t>Device is not recognized by Android Studio</t>
+  </si>
+  <si>
+    <t>Right click Computer to open the Device Manager
+Make sure that the test device has already installed correctly
+If not, following the steps described in http://developer.android.com/tools/extras/oem-usb.html#Drivers</t>
   </si>
 </sst>
 </file>
@@ -504,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Topic"/>
     <tableColumn id="2" name="Date"/>
@@ -804,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,11 +1135,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1235,17 @@
       </c>
       <c r="C8" s="7" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="8">
+        <v>41962</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
